--- a/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D5_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>151719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146071</v>
+        <v>146794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>153619</v>
+        <v>153647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9833559740208843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9467464836655298</v>
+        <v>0.9514329170900008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9956678680951397</v>
+        <v>0.9958492258263353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>225</v>
@@ -762,19 +762,19 @@
         <v>134742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131355</v>
+        <v>131526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136790</v>
+        <v>137192</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9714016210060294</v>
+        <v>0.9714016210060297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9469839491857401</v>
+        <v>0.9482148383594515</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9861660920313498</v>
+        <v>0.9890605393925297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>375</v>
@@ -783,19 +783,19 @@
         <v>286461</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>281210</v>
+        <v>281503</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>289551</v>
+        <v>289549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9776965996463731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9597743676155938</v>
+        <v>0.9607737061746195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9882423045809317</v>
+        <v>0.988237019884403</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2568</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8216</v>
+        <v>7493</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01664402597911578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004332131904860145</v>
+        <v>0.004150774173664679</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05325351633447007</v>
+        <v>0.04856708290999925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>3967</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1919</v>
+        <v>1517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7354</v>
+        <v>7183</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02859837899397043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01383390796865033</v>
+        <v>0.01093946060747021</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05301605081425999</v>
+        <v>0.05178516164054869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -854,19 +854,19 @@
         <v>6535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3445</v>
+        <v>3447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11786</v>
+        <v>11493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02230340035362683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01175769541906865</v>
+        <v>0.01176298011559676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0402256323844063</v>
+        <v>0.03922629382538041</v>
       </c>
     </row>
     <row r="6">
@@ -1052,19 +1052,19 @@
         <v>201137</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>186336</v>
+        <v>183913</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>210409</v>
+        <v>209828</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9071194375487512</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8403667873384449</v>
+        <v>0.8294388778789978</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9489359969878288</v>
+        <v>0.9463122469373788</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>302</v>
@@ -1073,19 +1073,19 @@
         <v>234621</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>224910</v>
+        <v>224266</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>240756</v>
+        <v>240125</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.9327815891011135</v>
+        <v>0.9327815891011134</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8941759373353456</v>
+        <v>0.8916150192467648</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9571720477864946</v>
+        <v>0.9546651284824306</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>449</v>
@@ -1094,19 +1094,19 @@
         <v>435758</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>418680</v>
+        <v>418966</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>446483</v>
+        <v>446800</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.920758357968995</v>
+        <v>0.9207583579689949</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8846729895632761</v>
+        <v>0.8852761922775044</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9434200348838747</v>
+        <v>0.9440890546441214</v>
       </c>
     </row>
     <row r="10">
@@ -1123,19 +1123,19 @@
         <v>18674</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9664</v>
+        <v>10583</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34037</v>
+        <v>35658</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08421945912154345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04358375999373912</v>
+        <v>0.04772768827154066</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1535042633540699</v>
+        <v>0.1608169305311016</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1144,19 +1144,19 @@
         <v>12962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7538</v>
+        <v>7980</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22401</v>
+        <v>23372</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05153436561122925</v>
+        <v>0.05153436561122926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02996873683725446</v>
+        <v>0.0317242412260945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0890611849258018</v>
+        <v>0.09291883527926942</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1165,19 +1165,19 @@
         <v>31636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20848</v>
+        <v>20390</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48139</v>
+        <v>48347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06684798547850955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04405115294824033</v>
+        <v>0.04308321043085275</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1017168637190852</v>
+        <v>0.102157785489369</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4616</v>
+        <v>5107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004174900846416832</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02081921448840844</v>
+        <v>0.02303073194719572</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1215,19 +1215,19 @@
         <v>3350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1258</v>
+        <v>1273</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7893</v>
+        <v>7069</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01331833991051372</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005003089289598631</v>
+        <v>0.005062419289274015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03137862817359737</v>
+        <v>0.02810517351141687</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1236,19 +1236,19 @@
         <v>4276</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1881</v>
+        <v>1523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9115</v>
+        <v>9191</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009034455880534246</v>
+        <v>0.009034455880534243</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003973530236057665</v>
+        <v>0.003217964230976231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01926030497780907</v>
+        <v>0.01942089393291213</v>
       </c>
     </row>
     <row r="12">
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5354</v>
+        <v>5075</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.004486202483288487</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02414740345895825</v>
+        <v>0.02288711869194431</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2985</v>
+        <v>3401</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.002365705377143581</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01186765676723133</v>
+        <v>0.01352007528046513</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>5343</v>
+        <v>5644</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003359200671961199</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01128982359632121</v>
+        <v>0.01192541282556012</v>
       </c>
     </row>
     <row r="13">
@@ -1411,19 +1411,19 @@
         <v>90487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85214</v>
+        <v>85507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92383</v>
+        <v>92406</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9724170291868248</v>
+        <v>0.972417029186825</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.91574486826873</v>
+        <v>0.9188926021012219</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9927940350995967</v>
+        <v>0.9930329619963916</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>206</v>
@@ -1432,19 +1432,19 @@
         <v>135723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129738</v>
+        <v>130532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140187</v>
+        <v>140318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9274338838375218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8865422737600898</v>
+        <v>0.8919639343928545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9579387724276677</v>
+        <v>0.9588346562269858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>316</v>
@@ -1453,19 +1453,19 @@
         <v>226210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>219223</v>
+        <v>219536</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231215</v>
+        <v>230899</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.944918893703554</v>
+        <v>0.9449188937035542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9157338976561811</v>
+        <v>0.9170392772363744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9658246767092312</v>
+        <v>0.9645050508985241</v>
       </c>
     </row>
     <row r="15">
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6798</v>
+        <v>7006</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02049558369931948</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07305731986432384</v>
+        <v>0.07528706135112584</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>13</v>
@@ -1503,19 +1503,19 @@
         <v>8185</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>4552</v>
+        <v>4396</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13723</v>
+        <v>13217</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05593079017704239</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03110277337051697</v>
+        <v>0.03003995918981253</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09377496249191573</v>
+        <v>0.09031568696562331</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -1524,19 +1524,19 @@
         <v>10092</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5884</v>
+        <v>5670</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16477</v>
+        <v>16160</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04215707715504995</v>
+        <v>0.04215707715504997</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02457705700997041</v>
+        <v>0.02368586206570562</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06882576099632517</v>
+        <v>0.06750242441008718</v>
       </c>
     </row>
     <row r="16">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2907</v>
+        <v>3360</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003938441301324343</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01986244904790178</v>
+        <v>0.0229616469678463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2581</v>
+        <v>2901</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002407563803192438</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01078284527100861</v>
+        <v>0.01211619875730458</v>
       </c>
     </row>
     <row r="17">
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3376</v>
+        <v>4617</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007087387113855551</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0362848182511955</v>
+        <v>0.0496144800474055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1637,19 +1637,19 @@
         <v>1858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5197</v>
+        <v>5129</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01269688468411139</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003877795067172069</v>
+        <v>0.003852348215112524</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03551497060175338</v>
+        <v>0.03504898797819108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1658,19 +1658,19 @@
         <v>2518</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5779</v>
+        <v>5799</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0105164653382035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00256524584763541</v>
+        <v>0.002720916316516486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02414150022339267</v>
+        <v>0.02422512029207535</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         <v>165610</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>157178</v>
+        <v>155606</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170306</v>
+        <v>170416</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9492702589408561</v>
+        <v>0.9492702589408559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9009422386162064</v>
+        <v>0.8919309211695485</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9761901891884605</v>
+        <v>0.9768179436025658</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>259</v>
@@ -1783,19 +1783,19 @@
         <v>190262</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183573</v>
+        <v>183804</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194534</v>
+        <v>194322</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9441888259768615</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9109946690925612</v>
+        <v>0.9121444814682517</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9653890474597855</v>
+        <v>0.9643399404811311</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>381</v>
@@ -1804,19 +1804,19 @@
         <v>355871</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>347138</v>
+        <v>346568</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>362758</v>
+        <v>363008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9465467567178676</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9233178267376028</v>
+        <v>0.9218019659193367</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9648643451372301</v>
+        <v>0.965528372826808</v>
       </c>
     </row>
     <row r="20">
@@ -1833,19 +1833,19 @@
         <v>6400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2357</v>
+        <v>2288</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15391</v>
+        <v>16763</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0366831657624358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01350921839714869</v>
+        <v>0.01311564129504609</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08822039316954472</v>
+        <v>0.09608230271816677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1854,19 +1854,19 @@
         <v>8063</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4723</v>
+        <v>4576</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14143</v>
+        <v>13120</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04001262143523197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02343925386382843</v>
+        <v>0.02270663155011778</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07018491271604928</v>
+        <v>0.06510723179172233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -1875,19 +1875,19 @@
         <v>14463</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9193</v>
+        <v>8755</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22718</v>
+        <v>23354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03846765844205068</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02445216779017487</v>
+        <v>0.02328613019226666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06042571461150693</v>
+        <v>0.06211647451514477</v>
       </c>
     </row>
     <row r="21">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3614</v>
+        <v>3188</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004127137192258838</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02071596266428299</v>
+        <v>0.0182758293920564</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1925,19 +1925,19 @@
         <v>3184</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>698</v>
+        <v>772</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7526</v>
+        <v>7497</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01579855258790652</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003465340470124698</v>
+        <v>0.003830496810853557</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03734701909914884</v>
+        <v>0.03720444673890923</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1946,19 +1946,19 @@
         <v>3904</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1332</v>
+        <v>1372</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8456</v>
+        <v>8934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01038268085498197</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003541881227234154</v>
+        <v>0.003648068709466208</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02249094585503157</v>
+        <v>0.02376303300480496</v>
       </c>
     </row>
     <row r="22">
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6767</v>
+        <v>6620</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009919438104449388</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03878678922330315</v>
+        <v>0.03794507407686153</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7223</v>
+        <v>6688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004602903985099819</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01921158252506416</v>
+        <v>0.01778755903360866</v>
       </c>
     </row>
     <row r="23">
@@ -2113,19 +2113,19 @@
         <v>79732</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74207</v>
+        <v>74002</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>82368</v>
+        <v>82543</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9444565517723148</v>
+        <v>0.9444565517723146</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8790107190494276</v>
+        <v>0.8765879008322632</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9756859000298594</v>
+        <v>0.9777547240450124</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>147</v>
@@ -2134,19 +2134,19 @@
         <v>70836</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63889</v>
+        <v>64785</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74391</v>
+        <v>74508</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.8923074848319733</v>
+        <v>0.8923074848319735</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8047963147538019</v>
+        <v>0.8160800964939133</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9370931363816897</v>
+        <v>0.9385676651978765</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>249</v>
@@ -2155,19 +2155,19 @@
         <v>150568</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>142577</v>
+        <v>142342</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155427</v>
+        <v>155392</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.9191835375989128</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8704028934874806</v>
+        <v>0.8689669582467374</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9488500876450363</v>
+        <v>0.9486333609733475</v>
       </c>
     </row>
     <row r="25">
@@ -2184,19 +2184,19 @@
         <v>3426</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1237</v>
+        <v>773</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8851</v>
+        <v>9323</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04058446276114468</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01465046311143641</v>
+        <v>0.00915456215365037</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1048434895135821</v>
+        <v>0.1104352935412763</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2205,19 +2205,19 @@
         <v>7291</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3972</v>
+        <v>3721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>14068</v>
+        <v>13593</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09184722572627643</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05003595688489661</v>
+        <v>0.04687591948440133</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1772169318422769</v>
+        <v>0.1712313759551301</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2226,19 +2226,19 @@
         <v>10717</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5821</v>
+        <v>6153</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18381</v>
+        <v>18649</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06542794723743751</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03553533841066878</v>
+        <v>0.03756321481522347</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1122122938433401</v>
+        <v>0.1138505603844874</v>
       </c>
     </row>
     <row r="26">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4359</v>
+        <v>4094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0149589854665405</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05163510809924208</v>
+        <v>0.04849440273820931</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2975</v>
+        <v>2741</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01098225084076473</v>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03747830605662366</v>
+        <v>0.03452506678516335</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2297,19 +2297,19 @@
         <v>2135</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>526</v>
+        <v>720</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5141</v>
+        <v>5521</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01303173966028156</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003210227588271101</v>
+        <v>0.004394334765769883</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03138303408823881</v>
+        <v>0.03370213228607979</v>
       </c>
     </row>
     <row r="27">
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2112</v>
+        <v>2297</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.004863038600985316</v>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02660387080482974</v>
+        <v>0.02893305888640805</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1969</v>
+        <v>1944</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002356775503368168</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01201831239640715</v>
+        <v>0.01186513890864388</v>
       </c>
     </row>
     <row r="28">
@@ -2464,19 +2464,19 @@
         <v>125046</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121831</v>
+        <v>121560</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>126374</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9858067986388324</v>
+        <v>0.9858067986388322</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.960463970132462</v>
+        <v>0.9583242711915786</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9962776575871362</v>
+        <v>0.9962758840944882</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>197</v>
@@ -2485,19 +2485,19 @@
         <v>112283</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>109670</v>
+        <v>109636</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>113354</v>
+        <v>113342</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9873971013226874</v>
+        <v>0.987397101322687</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9644181504287396</v>
+        <v>0.9641205694636651</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9968149467796771</v>
+        <v>0.9967090009794655</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>371</v>
@@ -2506,19 +2506,19 @@
         <v>237328</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>233374</v>
+        <v>232986</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>239225</v>
+        <v>239155</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9865585498419334</v>
+        <v>0.9865585498419335</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9701184335120127</v>
+        <v>0.9685079839815304</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9944429860427586</v>
+        <v>0.9941493361040886</v>
       </c>
     </row>
     <row r="30">
@@ -2538,16 +2538,16 @@
         <v>472</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5015</v>
+        <v>5286</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01419320136116765</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003722342412863957</v>
+        <v>0.003724115905511688</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03953602986753785</v>
+        <v>0.04167572880842162</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3715</v>
+        <v>3579</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009340631058305316</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03267108229654998</v>
+        <v>0.03147680393396898</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -2577,19 +2577,19 @@
         <v>2863</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6749</v>
+        <v>7099</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01189934522903359</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.004364209299159885</v>
+        <v>0.004375949090134603</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02805653312589359</v>
+        <v>0.02950927153723821</v>
       </c>
     </row>
     <row r="31">
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2483</v>
+        <v>1941</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003262267619007504</v>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02183941698076416</v>
+        <v>0.0170662831396863</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1845</v>
+        <v>2196</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001542104929032912</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007671604101050249</v>
+        <v>0.009128964485094601</v>
       </c>
     </row>
     <row r="32">
@@ -2791,19 +2791,19 @@
         <v>331025</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>319468</v>
+        <v>319558</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>339791</v>
+        <v>339366</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.9413445401891346</v>
+        <v>0.9413445401891344</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9084816715789614</v>
+        <v>0.9087363726479065</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9662737582319583</v>
+        <v>0.9650643292223532</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>409</v>
@@ -2812,19 +2812,19 @@
         <v>334952</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>323885</v>
+        <v>324527</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>341522</v>
+        <v>342099</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.9404028831505404</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.9093313470156786</v>
+        <v>0.9111333701516768</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9588496214162328</v>
+        <v>0.9604693847453818</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>676</v>
@@ -2833,19 +2833,19 @@
         <v>665977</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>650400</v>
+        <v>649899</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>677218</v>
+        <v>676678</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.940870699763761</v>
+        <v>0.9408706997637609</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9188631223588619</v>
+        <v>0.9181559964257808</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9567516297453816</v>
+        <v>0.955987509789809</v>
       </c>
     </row>
     <row r="35">
@@ -2862,19 +2862,19 @@
         <v>17077</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9257</v>
+        <v>9390</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29022</v>
+        <v>28071</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04856270392437899</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02632563211598113</v>
+        <v>0.02670210335030888</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08253193222819664</v>
+        <v>0.07982585795222009</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -2883,19 +2883,19 @@
         <v>14722</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9692</v>
+        <v>8639</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>22421</v>
+        <v>22148</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04133240553742788</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02721190249991646</v>
+        <v>0.02425437247754635</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06294932696296174</v>
+        <v>0.06218242720122452</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -2904,19 +2904,19 @@
         <v>31799</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>21547</v>
+        <v>22292</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46060</v>
+        <v>45474</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.04492442849836495</v>
+        <v>0.04492442849836494</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03044083101477466</v>
+        <v>0.03149335929423763</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06507208771859078</v>
+        <v>0.06424414510475009</v>
       </c>
     </row>
     <row r="36">
@@ -2933,19 +2933,19 @@
         <v>3549</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9181</v>
+        <v>10956</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01009275588648664</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0</v>
+        <v>0.003222005806647164</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02610757881145181</v>
+        <v>0.0311548411330297</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2954,19 +2954,19 @@
         <v>5111</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13439</v>
+        <v>13264</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01434900581976</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003962740919147209</v>
+        <v>0.003964965098474632</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03773239642671016</v>
+        <v>0.03724105597234115</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -2975,19 +2975,19 @@
         <v>8660</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3860</v>
+        <v>3760</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>19752</v>
+        <v>18193</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01223449454102815</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005452803715272808</v>
+        <v>0.005312102515558258</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02790435412819785</v>
+        <v>0.02570177972080565</v>
       </c>
     </row>
     <row r="37">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4293</v>
+        <v>4548</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003915705492271867</v>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01205253504906187</v>
+        <v>0.01277025872025144</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4971</v>
+        <v>4866</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.001970377196846007</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.007022260041682373</v>
+        <v>0.00687513810131122</v>
       </c>
     </row>
     <row r="38">
@@ -3142,19 +3142,19 @@
         <v>343060</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>332910</v>
+        <v>332602</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>349829</v>
+        <v>349455</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.9511824036788471</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.9230392939398386</v>
+        <v>0.9221847730521222</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.9699503117850281</v>
+        <v>0.9689135075932802</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>485</v>
@@ -3163,19 +3163,19 @@
         <v>384671</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>374918</v>
+        <v>375049</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>391869</v>
+        <v>391900</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.9451225303457053</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.9211611118026982</v>
+        <v>0.9214819110902382</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.9628091069976417</v>
+        <v>0.9628853336516217</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>801</v>
@@ -3184,19 +3184,19 @@
         <v>727731</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>714299</v>
+        <v>713816</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>738431</v>
+        <v>738417</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.9479695728254306</v>
+        <v>0.9479695728254305</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.9304725154292413</v>
+        <v>0.9298437451205249</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.9619078353557419</v>
+        <v>0.9618899650833926</v>
       </c>
     </row>
     <row r="40">
@@ -3213,19 +3213,19 @@
         <v>13892</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8072</v>
+        <v>8087</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>22413</v>
+        <v>22662</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03851749850511994</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02238148129780787</v>
+        <v>0.02242298669155562</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06214319280651293</v>
+        <v>0.06283269700585348</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>25</v>
@@ -3234,19 +3234,19 @@
         <v>18204</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>11930</v>
+        <v>11725</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>27849</v>
+        <v>26569</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04472686179856646</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02931041745518896</v>
+        <v>0.0288086962231104</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06842465753402552</v>
+        <v>0.06527826974709418</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>39</v>
@@ -3255,19 +3255,19 @@
         <v>32096</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>22467</v>
+        <v>22822</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>43486</v>
+        <v>44060</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04180958612354447</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02926601345374157</v>
+        <v>0.02972920496803939</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05664660160048639</v>
+        <v>0.05739474474195282</v>
       </c>
     </row>
     <row r="41">
@@ -3284,19 +3284,19 @@
         <v>3715</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>12666</v>
+        <v>10495</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01030009781603294</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002216290691408852</v>
+        <v>0.002147301802844109</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03511932928695579</v>
+        <v>0.0290984217863506</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5965</v>
+        <v>6062</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.004142563909081124</v>
+        <v>0.004142563909081123</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01465639431415549</v>
+        <v>0.01489517397908106</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3326,19 +3326,19 @@
         <v>5401</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1805</v>
+        <v>1822</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12385</v>
+        <v>13092</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.007035489163403475</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002351515012412279</v>
+        <v>0.002373167754578644</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01613341999865795</v>
+        <v>0.01705435807944121</v>
       </c>
     </row>
     <row r="42">
@@ -3368,19 +3368,19 @@
         <v>2445</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7619</v>
+        <v>6731</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.006008043946647237</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001601223665369507</v>
+        <v>0.001573687779733847</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01871967138834947</v>
+        <v>0.01653829880067624</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3389,19 +3389,19 @@
         <v>2445</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6315</v>
+        <v>7257</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003185351887621546</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0008309268710684997</v>
+        <v>0.0008432103674568586</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.008226152476129876</v>
+        <v>0.009453797276838578</v>
       </c>
     </row>
     <row r="43">
@@ -3493,19 +3493,19 @@
         <v>1487816</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1463970</v>
+        <v>1466828</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1505820</v>
+        <v>1506695</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.9493962166321833</v>
+        <v>0.9493962166321831</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9341795480767182</v>
+        <v>0.9360034379646258</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9608849672708467</v>
+        <v>0.9614431807287487</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2230</v>
@@ -3514,19 +3514,19 @@
         <v>1598089</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1579834</v>
+        <v>1580792</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1612845</v>
+        <v>1613556</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.943173610133794</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9323997057513623</v>
+        <v>0.9329650227941105</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9518822594070121</v>
+        <v>0.9523024248445826</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3618</v>
@@ -3535,19 +3535,19 @@
         <v>3085905</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3057788</v>
+        <v>3059640</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3110196</v>
+        <v>3111289</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.9461635171762858</v>
+        <v>0.9461635171762857</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9375428047940734</v>
+        <v>0.9381106590982059</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9536114113421784</v>
+        <v>0.9539465622860698</v>
       </c>
     </row>
     <row r="45">
@@ -3564,19 +3564,19 @@
         <v>65745</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>49597</v>
+        <v>48395</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>87614</v>
+        <v>84799</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04195261358963518</v>
+        <v>0.04195261358963517</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03164858053917017</v>
+        <v>0.03088125797033161</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.05590780690167929</v>
+        <v>0.05411111816507194</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>112</v>
@@ -3585,19 +3585,19 @@
         <v>74456</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>61785</v>
+        <v>60535</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>92251</v>
+        <v>89761</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04394334420853392</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.0364648750208186</v>
+        <v>0.03572725255363318</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.05444574270886283</v>
+        <v>0.05297567544604297</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>169</v>
@@ -3606,19 +3606,19 @@
         <v>140201</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>118193</v>
+        <v>119130</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>166203</v>
+        <v>164842</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.04298681586326732</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.0362389334357859</v>
+        <v>0.03652618763226017</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05095918704499054</v>
+        <v>0.05054181141426093</v>
       </c>
     </row>
     <row r="46">
@@ -3635,19 +3635,19 @@
         <v>10173</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4846</v>
+        <v>4628</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>18433</v>
+        <v>17903</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.006491289344753013</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.003092576828553447</v>
+        <v>0.002953324881042563</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.01176241168322443</v>
+        <v>0.01142386024839268</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -3656,19 +3656,19 @@
         <v>15150</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>9167</v>
+        <v>9192</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>24650</v>
+        <v>25305</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.00894106512192267</v>
+        <v>0.008941065121922668</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.00541004162505179</v>
+        <v>0.005424858034892966</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01454794232998139</v>
+        <v>0.01493458043350116</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>30</v>
@@ -3677,19 +3677,19 @@
         <v>25322</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>16958</v>
+        <v>17648</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>38317</v>
+        <v>37998</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.007763969663519278</v>
+        <v>0.007763969663519279</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005199482466279081</v>
+        <v>0.005411155642742999</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01174824704253014</v>
+        <v>0.01165045516950822</v>
       </c>
     </row>
     <row r="47">
@@ -3706,19 +3706,19 @@
         <v>3385</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1013</v>
+        <v>816</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8730</v>
+        <v>8340</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.002159880433428598</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0006466689991591903</v>
+        <v>0.000520521535396228</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.005570585622283544</v>
+        <v>0.005322143294216469</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -3727,19 +3727,19 @@
         <v>6679</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3284</v>
+        <v>3341</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11681</v>
+        <v>12385</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.003941980535749518</v>
+        <v>0.003941980535749517</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001937927992953743</v>
+        <v>0.001971867472932176</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.006893787165249727</v>
+        <v>0.00730965282363579</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>14</v>
@@ -3748,19 +3748,19 @@
         <v>10064</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>5643</v>
+        <v>6105</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>17330</v>
+        <v>17296</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.003085697296927659</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.00173015162276338</v>
+        <v>0.001871902665510425</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.005313505593969582</v>
+        <v>0.005303244363669046</v>
       </c>
     </row>
     <row r="48">
